--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/125.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/125.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2019874392090689</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.604085133406053</v>
+        <v>-1.605807110324756</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04285176942769035</v>
+        <v>-0.04240002593987705</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1455738313028945</v>
+        <v>-0.1492176855687056</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2048288397437634</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.585602213874179</v>
+        <v>-1.588382718651957</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07359551090493538</v>
+        <v>-0.07223713240325288</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1192656757094748</v>
+        <v>-0.1235658959488683</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2188257964257657</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.634398380653622</v>
+        <v>-1.63687667376011</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1214724505175384</v>
+        <v>-0.1199724102949389</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1148253677682856</v>
+        <v>-0.1186832886345936</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.242425551033888</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.728645136570182</v>
+        <v>-1.730709462647768</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1481599447191916</v>
+        <v>-0.1472391435332307</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1255822144432545</v>
+        <v>-0.1297769754015208</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2638870627375384</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760336437558451</v>
+        <v>-1.76011764890059</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1090298293636565</v>
+        <v>-0.1090927901285085</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1158185738338263</v>
+        <v>-0.1196528844133148</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2707606823972218</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.621123103384572</v>
+        <v>-1.619416079647521</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.044572172327272</v>
+        <v>-0.0445737463463933</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1168778887024617</v>
+        <v>-0.1202368455073174</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2582465002785523</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.331841999176325</v>
+        <v>-1.332280363501607</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.009706074771340466</v>
+        <v>-0.007505596039762104</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1115262236900394</v>
+        <v>-0.1159806978033203</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.22635229890775</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9103023642816666</v>
+        <v>-0.9130183342754709</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01028059175061522</v>
+        <v>-0.00436070583540333</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07138873609687182</v>
+        <v>-0.07584950628663797</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1759567106558719</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3827785128829082</v>
+        <v>-0.389346894676096</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05754681194415357</v>
+        <v>-0.04939968897230121</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02423899331830972</v>
+        <v>-0.0283172768615998</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1079315794554112</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1827366510371242</v>
+        <v>0.1726251522018886</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1178238741943634</v>
+        <v>-0.1056535583484665</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0584111767220681</v>
+        <v>0.05379300462017188</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.02330401845169702</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8627758722038734</v>
+        <v>0.8489685764718238</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2473955542407147</v>
+        <v>-0.2321291427832194</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1382045020572852</v>
+        <v>0.1333329128768595</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.07559864803536054</v>
       </c>
       <c r="E13" t="n">
-        <v>1.557160703642157</v>
+        <v>1.539819734982787</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4530742068401969</v>
+        <v>-0.4345338356103961</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2567832325604725</v>
+        <v>0.252001362469961</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1828564739400389</v>
       </c>
       <c r="E14" t="n">
-        <v>2.281795034553597</v>
+        <v>2.261049462534854</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6845289965700991</v>
+        <v>-0.6642524822495037</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3777198437073682</v>
+        <v>0.3720880032913544</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2892466233675592</v>
       </c>
       <c r="E15" t="n">
-        <v>3.014836201591904</v>
+        <v>2.991177120179634</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9328029676206598</v>
+        <v>-0.9101315832070054</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4897726909336429</v>
+        <v>0.484014928987925</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.385813686676091</v>
       </c>
       <c r="E16" t="n">
-        <v>3.635325557342485</v>
+        <v>3.611759343058371</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.218098655413773</v>
+        <v>-1.190150371895959</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6361171187365743</v>
+        <v>0.6275749169652755</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4723758665099028</v>
       </c>
       <c r="E17" t="n">
-        <v>4.229676751564746</v>
+        <v>4.204346061845654</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.47343446325205</v>
+        <v>-1.441594417456819</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7858834641092135</v>
+        <v>0.776699062536424</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5562492364628666</v>
       </c>
       <c r="E18" t="n">
-        <v>4.758007287763171</v>
+        <v>4.733323519902934</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.714902375622106</v>
+        <v>-1.681696868239147</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9230702486644176</v>
+        <v>0.9122646073966884</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.64094363898413</v>
       </c>
       <c r="E19" t="n">
-        <v>5.188108012658583</v>
+        <v>5.162887504277982</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.004962619295397</v>
+        <v>-1.968236031138088</v>
       </c>
       <c r="G19" t="n">
-        <v>1.068341195426622</v>
+        <v>1.057012979810621</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7232780809010801</v>
       </c>
       <c r="E20" t="n">
-        <v>5.525886220013226</v>
+        <v>5.500309983311211</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.258991991262994</v>
+        <v>-2.220980216493143</v>
       </c>
       <c r="G20" t="n">
-        <v>1.21928018504463</v>
+        <v>1.207695404311857</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.799021074317404</v>
       </c>
       <c r="E21" t="n">
-        <v>5.810525541832757</v>
+        <v>5.785020135991201</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.481751899366831</v>
+        <v>-2.442184206695574</v>
       </c>
       <c r="G21" t="n">
-        <v>1.356067168743024</v>
+        <v>1.345127735849984</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8662997728791456</v>
       </c>
       <c r="E22" t="n">
-        <v>6.016112901323204</v>
+        <v>5.991885599008143</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.687108665056007</v>
+        <v>-2.647733002717549</v>
       </c>
       <c r="G22" t="n">
-        <v>1.471729241814441</v>
+        <v>1.46012242481397</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9240282863102529</v>
       </c>
       <c r="E23" t="n">
-        <v>6.156403651585613</v>
+        <v>6.130257619961688</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.807042626022634</v>
+        <v>-2.768950576277597</v>
       </c>
       <c r="G23" t="n">
-        <v>1.570933370953538</v>
+        <v>1.559334424048673</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.9700379821736994</v>
       </c>
       <c r="E24" t="n">
-        <v>6.2609200952591</v>
+        <v>6.233974461921553</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.879656850145599</v>
+        <v>-2.843617321334738</v>
       </c>
       <c r="G24" t="n">
-        <v>1.618504950856609</v>
+        <v>1.607134236724333</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.000156678047083</v>
       </c>
       <c r="E25" t="n">
-        <v>6.278421613868842</v>
+        <v>6.251858467177771</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.957827361766755</v>
+        <v>-2.921602098699581</v>
       </c>
       <c r="G25" t="n">
-        <v>1.668587091258154</v>
+        <v>1.658795118304542</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.010570863765474</v>
       </c>
       <c r="E26" t="n">
-        <v>6.266592860172268</v>
+        <v>6.241018197489374</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.018876480395963</v>
+        <v>-2.98330679629281</v>
       </c>
       <c r="G26" t="n">
-        <v>1.687129036507076</v>
+        <v>1.677366969916769</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.001771415093594</v>
       </c>
       <c r="E27" t="n">
-        <v>6.170031509137834</v>
+        <v>6.145347741277597</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.032704238376589</v>
+        <v>-2.998093918927869</v>
       </c>
       <c r="G27" t="n">
-        <v>1.693521128158678</v>
+        <v>1.683969980130626</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9762330015264914</v>
       </c>
       <c r="E28" t="n">
-        <v>6.004905885179543</v>
+        <v>5.9822242696416</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.042766155609504</v>
+        <v>-3.008230602069045</v>
       </c>
       <c r="G28" t="n">
-        <v>1.678996079707315</v>
+        <v>1.670159536360333</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9380967137188414</v>
       </c>
       <c r="E29" t="n">
-        <v>5.83365575282027</v>
+        <v>5.812496213772626</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.999166612959036</v>
+        <v>-2.966227114807576</v>
       </c>
       <c r="G29" t="n">
-        <v>1.641960983802232</v>
+        <v>1.633250361984954</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.892370200830614</v>
       </c>
       <c r="E30" t="n">
-        <v>5.639851500471881</v>
+        <v>5.62051152752846</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.969917402637466</v>
+        <v>-2.938509425091032</v>
       </c>
       <c r="G30" t="n">
-        <v>1.571852598120378</v>
+        <v>1.564056481412575</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.8426208907855175</v>
       </c>
       <c r="E31" t="n">
-        <v>5.399698681077671</v>
+        <v>5.381905968930488</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.868098827737888</v>
+        <v>-2.839443022625048</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497275572153151</v>
+        <v>1.489556582382292</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7898919048321765</v>
       </c>
       <c r="E32" t="n">
-        <v>5.168198244793251</v>
+        <v>5.150235538580968</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.806601113659109</v>
+        <v>-2.777647031922784</v>
       </c>
       <c r="G32" t="n">
-        <v>1.423836562010625</v>
+        <v>1.416359971184447</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7336682805717228</v>
       </c>
       <c r="E33" t="n">
-        <v>4.873312058494053</v>
+        <v>4.856158398110118</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.681789267435572</v>
+        <v>-2.654724795654367</v>
       </c>
       <c r="G33" t="n">
-        <v>1.349755352066608</v>
+        <v>1.343045308552503</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.672628871080045</v>
       </c>
       <c r="E34" t="n">
-        <v>4.612152379906964</v>
+        <v>4.597400672702133</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.605090463692831</v>
+        <v>-2.578498197648017</v>
       </c>
       <c r="G34" t="n">
-        <v>1.248959889595876</v>
+        <v>1.242487522969087</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6064665322301941</v>
       </c>
       <c r="E35" t="n">
-        <v>4.29696606900035</v>
+        <v>4.285005097697586</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.530944718964841</v>
+        <v>-2.505919388955282</v>
       </c>
       <c r="G35" t="n">
-        <v>1.157281145875717</v>
+        <v>1.150942570874239</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5371633816765045</v>
       </c>
       <c r="E36" t="n">
-        <v>3.957232929897052</v>
+        <v>3.946271460736314</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.434471513001201</v>
+        <v>-2.410372493244527</v>
       </c>
       <c r="G36" t="n">
-        <v>1.076782659974157</v>
+        <v>1.072353370166817</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4679681556753116</v>
       </c>
       <c r="E37" t="n">
-        <v>3.673569499932727</v>
+        <v>3.66346744521222</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.365573548023627</v>
+        <v>-2.342111219001519</v>
       </c>
       <c r="G37" t="n">
-        <v>0.990323363660232</v>
+        <v>0.9854344602694721</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4019771101003751</v>
       </c>
       <c r="E38" t="n">
-        <v>3.372193632796406</v>
+        <v>3.365485163301423</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.297503517103858</v>
+        <v>-2.274420526689983</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9005570531724538</v>
+        <v>0.8966157092927168</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3410116762356624</v>
       </c>
       <c r="E39" t="n">
-        <v>3.053577534224478</v>
+        <v>3.048502896577405</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.219280275842138</v>
+        <v>-2.197774452587807</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8120578280773226</v>
+        <v>0.8088310888786562</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2848599247299974</v>
       </c>
       <c r="E40" t="n">
-        <v>2.774293025455612</v>
+        <v>2.767899359784888</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.145624051060872</v>
+        <v>-2.123636577955423</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7449841512613364</v>
+        <v>0.742286282487427</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2324282181301715</v>
       </c>
       <c r="E41" t="n">
-        <v>2.477085160952495</v>
+        <v>2.471634332735431</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.084974733288475</v>
+        <v>-2.064669886623696</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6864526762166491</v>
+        <v>0.6846582944183662</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.1836462373883348</v>
       </c>
       <c r="E42" t="n">
-        <v>2.200382043542562</v>
+        <v>2.196717727028174</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.9987704280722</v>
+        <v>-1.979896364788684</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6143216759639237</v>
+        <v>0.6134953159252409</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1386331459455684</v>
       </c>
       <c r="E43" t="n">
-        <v>1.947504853571757</v>
+        <v>1.944345797195307</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.935900956329208</v>
+        <v>-1.916616074055032</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5442400486071319</v>
+        <v>0.5426628814475886</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.09790006461593879</v>
       </c>
       <c r="E44" t="n">
-        <v>1.745728194373979</v>
+        <v>1.741950548482858</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.883981935613105</v>
+        <v>-1.865513182253323</v>
       </c>
       <c r="G44" t="n">
-        <v>0.477712556426237</v>
+        <v>0.4760283559664453</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.06185470939685548</v>
       </c>
       <c r="E45" t="n">
-        <v>1.53259813525426</v>
+        <v>1.530946989196015</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.798747226175551</v>
+        <v>-1.780586980563545</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4268229442154645</v>
+        <v>0.4253354961458353</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.03036779034833545</v>
       </c>
       <c r="E46" t="n">
-        <v>1.336812192832152</v>
+        <v>1.334329964677861</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.739078522315724</v>
+        <v>-1.721613993155332</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3746678206311662</v>
+        <v>0.3743829231702108</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.002747746455992147</v>
       </c>
       <c r="E47" t="n">
-        <v>1.182045188711141</v>
+        <v>1.180510520067873</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.707589482784543</v>
+        <v>-1.690541281681736</v>
       </c>
       <c r="G47" t="n">
-        <v>0.327187533837131</v>
+        <v>0.3256497171556202</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.02162609798629734</v>
       </c>
       <c r="E48" t="n">
-        <v>1.005049886559121</v>
+        <v>1.00453990436382</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.645038749913615</v>
+        <v>-1.62778828735372</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2561252925677688</v>
+        <v>0.2551981953053227</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.04404605357946591</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8587369391386158</v>
+        <v>0.8581152015857021</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.594810225733788</v>
+        <v>-1.577467683055297</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2214559474019998</v>
+        <v>0.220692548128169</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.06604627362139513</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7591172689514952</v>
+        <v>0.7585018274750667</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.544152781343408</v>
+        <v>-1.525887076450274</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1795807426989164</v>
+        <v>0.1786111469201951</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.08782262136802127</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6436739845379389</v>
+        <v>0.6434457517653503</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.506946904363663</v>
+        <v>-1.488397089019134</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1455661894876085</v>
+        <v>0.1444580800262128</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1075800033320477</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5366060558688236</v>
+        <v>0.5351107377035879</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.462897192244502</v>
+        <v>-1.444995872777949</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1060488654282334</v>
+        <v>0.1057529498334289</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1245890461201695</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4684951004519002</v>
+        <v>0.4655327964656123</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.42277859288079</v>
+        <v>-1.406044408592682</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07423321692938262</v>
+        <v>0.07340685689069976</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1395009691105107</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3776332726556967</v>
+        <v>0.3728214962018805</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.371429367086598</v>
+        <v>-1.353089683294763</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04324235445009337</v>
+        <v>0.04296375306562315</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1536693028659498</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2879944577167438</v>
+        <v>0.2815787557783222</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.339793156767575</v>
+        <v>-1.321551062161261</v>
       </c>
       <c r="G55" t="n">
-        <v>0.008521066653321498</v>
+        <v>0.009075121384019341</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1679234199499312</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2242639975144003</v>
+        <v>0.2168818478355</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.319654369120094</v>
+        <v>-1.301451624991812</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008481487894968531</v>
+        <v>-0.008785273585379564</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.18320596984978</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1484545145751952</v>
+        <v>0.1408236698751295</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.326606811578879</v>
+        <v>-1.30851660981777</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04443680668284014</v>
+        <v>-0.04464615122597313</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.200565353973338</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08517107580330109</v>
+        <v>0.07723014933633912</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.306518392543279</v>
+        <v>-1.289357649073298</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07448010965110637</v>
+        <v>-0.0749979619420143</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.220818721242538</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04825560535143606</v>
+        <v>0.03924749392023223</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.316884882476165</v>
+        <v>-1.299425075373137</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09954479013869852</v>
+        <v>-0.09965182343894696</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2444977999906857</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.0049777213309532</v>
+        <v>-0.01591715422399298</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.320691647721031</v>
+        <v>-1.304277776324107</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.10413305587729</v>
+        <v>-0.1048161801759345</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2718885752968149</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.0431996276534978</v>
+        <v>-0.0551039342678949</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.300664615431162</v>
+        <v>-1.284678877235232</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1352860423260732</v>
+        <v>-0.1358007465787386</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3025183697493466</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.09717589136114099</v>
+        <v>-0.1092659322318516</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.32545856462989</v>
+        <v>-1.309032101079996</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1427941135346775</v>
+        <v>-0.1437070446250319</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3349317216148658</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1401702236594693</v>
+        <v>-0.1532424524618715</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.365446520406534</v>
+        <v>-1.348379431074271</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1617704880610786</v>
+        <v>-0.1622442678165901</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.368400789003031</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1943290735851833</v>
+        <v>-0.2096222433677408</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.407027383533934</v>
+        <v>-1.38920948708081</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.17741938616505</v>
+        <v>-0.1785023113205049</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4018071901190134</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2470036234795109</v>
+        <v>-0.2638597942495199</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.43982915501228</v>
+        <v>-1.422074219324008</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.202849239088784</v>
+        <v>-0.2037621701791384</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4342866308423524</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3137687925477221</v>
+        <v>-0.3301716458107966</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.481698850648439</v>
+        <v>-1.464918232796252</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2086919980670521</v>
+        <v>-0.2099401952302436</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4657345035694871</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.3007485063763228</v>
+        <v>-0.3189095389978902</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.527982882910286</v>
+        <v>-1.51151864290148</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.241758991767337</v>
+        <v>-0.2431331104602325</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4962394767600387</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3284654090833066</v>
+        <v>-0.3445833648854257</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.559242115649757</v>
+        <v>-1.541216448672621</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2520861312221908</v>
+        <v>-0.25334377250011</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5258857990349487</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3566450734119528</v>
+        <v>-0.3725946091680927</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.618825035467473</v>
+        <v>-1.599878567304376</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2584010959368491</v>
+        <v>-0.2587867306215678</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5548794538918068</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3831358152234434</v>
+        <v>-0.3988476740922669</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.636675986322144</v>
+        <v>-1.618322136358217</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2687786040035846</v>
+        <v>-0.2691280362485133</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5829968896392342</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3902220493075391</v>
+        <v>-0.4047171913955972</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.675323664817</v>
+        <v>-1.655520930251916</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.287463784992545</v>
+        <v>-0.2875078575279414</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.609522465576383</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.388572477268416</v>
+        <v>-0.4024742141477437</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.70819075808888</v>
+        <v>-1.687874893290252</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2850334994692568</v>
+        <v>-0.2849453543984639</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6339497160512001</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3496564285133778</v>
+        <v>-0.3623855211473365</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.73262346989927</v>
+        <v>-1.713380299131809</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2875377638912462</v>
+        <v>-0.286615388686164</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6552259721487061</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3080409369653089</v>
+        <v>-0.3209982623718562</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.765190712528542</v>
+        <v>-1.745756298437842</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2923133379052725</v>
+        <v>-0.2914743857136192</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.672036997996024</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.245083320151524</v>
+        <v>-0.2565311612207439</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.784295369613329</v>
+        <v>-1.765124603725447</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.296305050396891</v>
+        <v>-0.2945390009427916</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6831175650443958</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1375636479945953</v>
+        <v>-0.1486966852395551</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.792338607323176</v>
+        <v>-1.773373250930623</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2794913781431571</v>
+        <v>-0.2771272014229634</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6873839209561107</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.0514317476579004</v>
+        <v>-0.06138112252364204</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.778624965728843</v>
+        <v>-1.759679284575308</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2660618470002196</v>
+        <v>-0.2633199056909138</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6837832574757051</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08361122285409212</v>
+        <v>0.07462672170970779</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.782460850327453</v>
+        <v>-1.763638729674939</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.238655026060132</v>
+        <v>-0.2348600659586761</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6718935165903431</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2112814878019122</v>
+        <v>0.2023678175179864</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.810998604006195</v>
+        <v>-1.792588089353902</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2220003297376494</v>
+        <v>-0.2185374876707879</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6517218935298948</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3580461787102309</v>
+        <v>0.348624100250125</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.767309342265813</v>
+        <v>-1.750964727710226</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1958605941902089</v>
+        <v>-0.1919743409797175</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6238216083272319</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4877815567451975</v>
+        <v>0.4793526843506323</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.745343118418501</v>
+        <v>-1.730762979297893</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1671504854176844</v>
+        <v>-0.1636325526815773</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5893742306689728</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6668624342329407</v>
+        <v>0.6566218658297583</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.7055763123284</v>
+        <v>-1.69249542642083</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1411146351322497</v>
+        <v>-0.1379067841630389</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5495921475091103</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8397259361915461</v>
+        <v>0.8308768006915936</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.635717408677272</v>
+        <v>-1.62475121745917</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1227977746176736</v>
+        <v>-0.1180536809860733</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5056996245737381</v>
       </c>
       <c r="E84" t="n">
-        <v>1.021888743118796</v>
+        <v>1.011591510027247</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.555403083012904</v>
+        <v>-1.546959257436687</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1069615682382674</v>
+        <v>-0.1018208217880993</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4591659686556527</v>
       </c>
       <c r="E85" t="n">
-        <v>1.169196470623963</v>
+        <v>1.157597523719099</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.450555308314384</v>
+        <v>-1.442336567472512</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.08726114491606796</v>
+        <v>-0.0809477542205309</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4108458366914694</v>
       </c>
       <c r="E86" t="n">
-        <v>1.330618427589834</v>
+        <v>1.320089813687454</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.333338891360682</v>
+        <v>-1.326748473299796</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05717062137416271</v>
+        <v>-0.05082102823883573</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3611400880081141</v>
       </c>
       <c r="E87" t="n">
-        <v>1.471696187412894</v>
+        <v>1.459571518121514</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.202814929745944</v>
+        <v>-1.197410535092958</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.03336358216448981</v>
+        <v>-0.02660789209586725</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.3106846465925585</v>
       </c>
       <c r="E88" t="n">
-        <v>1.561632491965772</v>
+        <v>1.551865703318102</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.05658855337711</v>
+        <v>-1.052919514805358</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01920842820663272</v>
+        <v>-0.0127596718666638</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.260151225851824</v>
       </c>
       <c r="E89" t="n">
-        <v>1.666909186874847</v>
+        <v>1.656334926417949</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9103661120560792</v>
+        <v>-0.9092886959675489</v>
       </c>
       <c r="G89" t="n">
-        <v>0.004892952578723414</v>
+        <v>0.01170530733571279</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2111673406407451</v>
       </c>
       <c r="E90" t="n">
-        <v>1.710641734141066</v>
+        <v>1.700552271573528</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7186128066227442</v>
+        <v>-0.7204496869373022</v>
       </c>
       <c r="G90" t="n">
-        <v>0.006056152709364622</v>
+        <v>0.01372477386834157</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1673451397905115</v>
       </c>
       <c r="E91" t="n">
-        <v>1.727606512230444</v>
+        <v>1.72015825374845</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5335475084358159</v>
+        <v>-0.5358298361617019</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01186405498664371</v>
+        <v>-0.005224842332997408</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1334964202277458</v>
       </c>
       <c r="E92" t="n">
-        <v>1.69991321981028</v>
+        <v>1.693382614476004</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3693474077208494</v>
+        <v>-0.3727661772523145</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.01512857064422134</v>
+        <v>-0.008176128185436197</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1140643870994575</v>
       </c>
       <c r="E93" t="n">
-        <v>1.656220023022094</v>
+        <v>1.651003723654104</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2167919004652654</v>
+        <v>-0.2206183409491474</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03010064052603348</v>
+        <v>-0.02437593298186288</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1107639802712644</v>
       </c>
       <c r="E94" t="n">
-        <v>1.55744245306487</v>
+        <v>1.553639622867807</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.07813498205076656</v>
+        <v>-0.08292472223688456</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03646282581433086</v>
+        <v>-0.03036350171929069</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1216631324365966</v>
       </c>
       <c r="E95" t="n">
-        <v>1.487705535895643</v>
+        <v>1.483691787136326</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02852999772329584</v>
+        <v>0.02394173198470434</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07168465169167634</v>
+        <v>-0.06635344892783092</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1418114114471168</v>
       </c>
       <c r="E96" t="n">
-        <v>1.403396349701414</v>
+        <v>1.400049985049529</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1106670375301296</v>
+        <v>0.1053972215120149</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1007300265370379</v>
+        <v>-0.09548539482486405</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1647749923075991</v>
       </c>
       <c r="E97" t="n">
-        <v>1.323190631356416</v>
+        <v>1.320650164494637</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1738292768296836</v>
+        <v>0.1687451950678824</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1205453532550923</v>
+        <v>-0.1147151864297946</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1865363487924895</v>
       </c>
       <c r="E98" t="n">
-        <v>1.228714855657706</v>
+        <v>1.225344880719002</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2069450651227288</v>
+        <v>0.2012754482478037</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1410658405394894</v>
+        <v>-0.1357519519859783</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2031180687483862</v>
       </c>
       <c r="E99" t="n">
-        <v>1.142699432735988</v>
+        <v>1.138822623640224</v>
       </c>
       <c r="F99" t="n">
-        <v>0.227670174892895</v>
+        <v>0.2226537759533097</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1434158510875913</v>
+        <v>-0.1382892708095149</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2180880351646029</v>
       </c>
       <c r="E100" t="n">
-        <v>1.054425292375202</v>
+        <v>1.050907359639095</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2396642005972062</v>
+        <v>0.2346194693134375</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1579141412138919</v>
+        <v>-0.1528174672991203</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2337693149253244</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9638593801738036</v>
+        <v>0.9605429218852229</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2343251277377543</v>
+        <v>0.2276292503957411</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1717843977107936</v>
+        <v>-0.1662501464803004</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2592354598243845</v>
       </c>
       <c r="E102" t="n">
-        <v>0.902667812814118</v>
+        <v>0.900034478824182</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2404071376224601</v>
+        <v>0.2340260641047071</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1974330392923883</v>
+        <v>-0.1913651955797741</v>
       </c>
     </row>
   </sheetData>
